--- a/database/industries/kashi/kesave/product/yearly.xlsx
+++ b/database/industries/kashi/kesave/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4646B91-C438-401A-A966-600169D9B418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="36">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -28,9 +27,6 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
-    <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
-  </si>
-  <si>
     <t>تولید و فروش</t>
   </si>
   <si>
@@ -52,18 +48,12 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
-    <t>کاشی کف</t>
-  </si>
-  <si>
     <t>متر مربع</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>کاشی دیوار</t>
-  </si>
-  <si>
     <t>چینی بهداشتی</t>
   </si>
   <si>
@@ -76,9 +66,6 @@
     <t>پخت سوم</t>
   </si>
   <si>
-    <t>کاشی و سرامیک</t>
-  </si>
-  <si>
     <t>گرانیت و پورسلان</t>
   </si>
   <si>
@@ -137,12 +124,15 @@
   </si>
   <si>
     <t>سود ناخالص</t>
+  </si>
+  <si>
+    <t>کساوه-صنایع‌ کاشی سینا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -585,10 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,7 +633,7 @@
     </row>
     <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -653,7 +645,7 @@
     </row>
     <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -675,24 +667,24 @@
     </row>
     <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -707,47 +699,47 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>1780589</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
         <v>4689524</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" s="11">
         <v>6056576</v>
@@ -755,10 +747,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -779,21 +771,21 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
@@ -801,38 +793,38 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15" s="11">
         <v>7309776</v>
@@ -844,148 +836,148 @@
         <v>7972140</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I21" s="11">
         <v>3214043</v>
@@ -993,7 +985,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1045,24 +1037,24 @@
     </row>
     <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
@@ -1077,69 +1069,69 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
         <v>1829534</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
         <v>5002012</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" s="9">
         <v>6018158</v>
@@ -1147,10 +1139,10 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
@@ -1171,14 +1163,14 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -1190,17 +1182,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -1217,38 +1209,38 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35" s="11">
         <v>7841845</v>
@@ -1260,148 +1252,148 @@
         <v>8435913</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I41" s="11">
         <v>3139895</v>
@@ -1409,7 +1401,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -1461,24 +1453,24 @@
     </row>
     <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="G46" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="H46" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -1493,71 +1485,71 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
         <v>252323</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
         <v>832478</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I50" s="9">
         <v>5085359</v>
@@ -1565,10 +1557,10 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
@@ -1589,14 +1581,14 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -1608,19 +1600,19 @@
         <v>0</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F53" s="11">
         <v>-189238</v>
@@ -1637,38 +1629,38 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55" s="11">
         <v>1930547</v>
@@ -1680,148 +1672,148 @@
         <v>5661158</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I61" s="11">
         <v>3465103</v>
@@ -1829,7 +1821,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -1881,24 +1873,24 @@
     </row>
     <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="6" t="s">
+      <c r="H66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="I66" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -1913,71 +1905,71 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <v>137917</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
         <v>166429</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I70" s="9">
         <v>845003</v>
@@ -1985,10 +1977,10 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -2009,14 +2001,14 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -2028,19 +2020,19 @@
         <v>0</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F73" s="11">
         <v>0</v>
@@ -2052,43 +2044,43 @@
         <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F75" s="11">
         <v>246185</v>
@@ -2100,148 +2092,148 @@
         <v>671078</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I81" s="11">
         <v>1103573</v>
@@ -2279,24 +2271,24 @@
     </row>
     <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B85" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="G85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="H85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -2311,23 +2303,23 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I87" s="9">
         <v>-3281441</v>
@@ -2335,14 +2327,14 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F88" s="11">
         <v>-157571</v>
@@ -2359,14 +2351,14 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -2378,19 +2370,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F90" s="11">
         <v>0</v>
@@ -2407,14 +2399,14 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F91" s="9">
         <v>-1176994</v>
@@ -2426,28 +2418,28 @@
         <v>-2993259</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I92" s="11">
         <v>-2170481</v>
@@ -2455,7 +2447,7 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -2507,24 +2499,24 @@
     </row>
     <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="G97" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="H97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -2539,23 +2531,23 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I99" s="9">
         <v>1803918</v>
@@ -2563,14 +2555,14 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F100" s="11">
         <v>11386</v>
@@ -2587,17 +2579,17 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" s="9">
         <v>0</v>
@@ -2606,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F102" s="11">
         <v>-189238</v>
@@ -2635,14 +2627,14 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F103" s="9">
         <v>753553</v>
@@ -2654,28 +2646,28 @@
         <v>2667899</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I104" s="11">
         <v>1294622</v>
@@ -2683,7 +2675,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>

--- a/database/industries/kashi/kesave/product/yearly.xlsx
+++ b/database/industries/kashi/kesave/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\kashi\kesave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kashi\kesave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D114C61F-E84F-43C5-AF38-101225EE9979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -27,6 +28,9 @@
     <t>Copyright @2015 - 2023</t>
   </si>
   <si>
+    <t>کساوه-صنایع‌ کاشی‌ و سرامیک‌ سینا</t>
+  </si>
+  <si>
     <t>تولید و فروش</t>
   </si>
   <si>
@@ -48,12 +52,18 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>کاشی کف</t>
+  </si>
+  <si>
     <t>متر مربع</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>کاشی دیوار</t>
+  </si>
+  <si>
     <t>چینی بهداشتی</t>
   </si>
   <si>
@@ -66,6 +76,9 @@
     <t>پخت سوم</t>
   </si>
   <si>
+    <t>کاشی و سرامیک</t>
+  </si>
+  <si>
     <t>گرانیت و پورسلان</t>
   </si>
   <si>
@@ -124,15 +137,12 @@
   </si>
   <si>
     <t>سود ناخالص</t>
-  </si>
-  <si>
-    <t>کساوه-صنایع‌ کاشی سینا</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,19 +585,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I105"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -597,7 +605,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +617,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -621,7 +629,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -631,9 +639,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -643,9 +651,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -655,7 +663,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -665,29 +673,29 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -697,60 +705,60 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>1780589</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
         <v>4689524</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="11">
         <v>6056576</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
@@ -769,62 +777,62 @@
         <v>2624520</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" s="11">
         <v>7309776</v>
@@ -836,156 +844,156 @@
         <v>7972140</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21" s="11">
         <v>3214043</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -1005,7 +1013,7 @@
         <v>11895139</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1015,7 +1023,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1025,7 +1033,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1035,29 +1043,29 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1067,82 +1075,82 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
         <v>1829534</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9">
         <v>5002012</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9">
         <v>6018158</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11">
@@ -1161,16 +1169,16 @@
         <v>2357073</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -1182,17 +1190,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -1207,40 +1215,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F35" s="11">
         <v>7841845</v>
@@ -1252,156 +1260,156 @@
         <v>8435913</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I41" s="11">
         <v>3139895</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -1421,7 +1429,7 @@
         <v>11515126</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1431,7 +1439,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1441,7 +1449,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1451,29 +1459,29 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1483,84 +1491,84 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C49" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
         <v>252323</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
         <v>832478</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9">
         <v>5085359</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
@@ -1579,16 +1587,16 @@
         <v>427223</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F52" s="9">
         <v>0</v>
@@ -1600,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F53" s="11">
         <v>-189238</v>
@@ -1627,40 +1635,40 @@
         <v>-713544</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55" s="11">
         <v>1930547</v>
@@ -1672,156 +1680,156 @@
         <v>5661158</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I61" s="11">
         <v>3465103</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -1841,7 +1849,7 @@
         <v>8264141</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1851,7 +1859,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1861,7 +1869,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1871,29 +1879,29 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1903,84 +1911,84 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="C69" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
         <v>137917</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
         <v>166429</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9">
         <v>845003</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
@@ -1999,16 +2007,16 @@
         <v>181251</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F72" s="9">
         <v>0</v>
@@ -2020,19 +2028,19 @@
         <v>0</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F73" s="11">
         <v>0</v>
@@ -2044,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F75" s="11">
         <v>246185</v>
@@ -2092,154 +2100,154 @@
         <v>671078</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I81" s="11">
         <v>1103573</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2249,7 +2257,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2259,7 +2267,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2269,29 +2277,29 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B85" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2301,40 +2309,40 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9">
         <v>-3281441</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F88" s="11">
         <v>-157571</v>
@@ -2349,16 +2357,16 @@
         <v>-362516</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F89" s="9">
         <v>0</v>
@@ -2370,19 +2378,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F90" s="11">
         <v>0</v>
@@ -2397,16 +2405,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F91" s="9">
         <v>-1176994</v>
@@ -2418,36 +2426,36 @@
         <v>-2993259</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I92" s="11">
         <v>-2170481</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -2467,7 +2475,7 @@
         <v>-5814438</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2477,7 +2485,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2487,7 +2495,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2497,29 +2505,29 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2529,40 +2537,40 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9">
         <v>1803918</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F100" s="11">
         <v>11386</v>
@@ -2577,19 +2585,19 @@
         <v>64707</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G101" s="9">
         <v>0</v>
@@ -2598,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F102" s="11">
         <v>-189238</v>
@@ -2625,16 +2633,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F103" s="9">
         <v>753553</v>
@@ -2646,36 +2654,36 @@
         <v>2667899</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I104" s="11">
         <v>1294622</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
